--- a/TNR_PREJDD/RO/PREJDD.RO.CAL.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.CAL.xlsx
@@ -5733,7 +5733,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
